--- a/My Topics Tracker.xlsx
+++ b/My Topics Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCC6AA-A4B1-4AD9-907E-D95446F8FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DCD597-6A67-4600-942D-207FEA7C8C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6A90E04-9F9E-48A8-BA32-08344D7BBA98}"/>
   </bookViews>
@@ -21,19 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">My Weak Topics </t>
   </si>
@@ -393,6 +386,12 @@
   </si>
   <si>
     <t>Max Heap (Mock 1 23)</t>
+  </si>
+  <si>
+    <t>decompositions - lossless, lossy</t>
+  </si>
+  <si>
+    <t>Characteristic polynomial qs</t>
   </si>
 </sst>
 </file>
@@ -877,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032E660-027B-49D9-93E8-8FB79B8150B8}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1122,9 @@
       <c r="K7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1420,7 +1421,9 @@
       <c r="E14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>

--- a/My Topics Tracker.xlsx
+++ b/My Topics Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DCD597-6A67-4600-942D-207FEA7C8C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AFB8FE-8CF3-4ADD-9C66-8D05DB1D8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6A90E04-9F9E-48A8-BA32-08344D7BBA98}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">My Weak Topics </t>
   </si>
@@ -82,9 +82,6 @@
     <t>Similarity of Trngs</t>
   </si>
   <si>
-    <t>Dec bin fractions</t>
-  </si>
-  <si>
     <t>Exec time of process</t>
   </si>
   <si>
@@ -97,12 +94,6 @@
     <t>DP (Matrix chain)</t>
   </si>
   <si>
-    <t>Prime Implicants, EPI **</t>
-  </si>
-  <si>
-    <t>Dual of func exprn</t>
-  </si>
-  <si>
     <t>Decidability of problems (Halting prb)</t>
   </si>
   <si>
@@ -136,24 +127,15 @@
     <t xml:space="preserve">sizeof operator </t>
   </si>
   <si>
-    <t>BCD Code, Weigted Codes **</t>
-  </si>
-  <si>
     <t>Heap leaf,internal nodes</t>
   </si>
   <si>
-    <t>Cinfinite, UCI</t>
-  </si>
-  <si>
     <t>LR(0) parsing (#unique prd)[T1, q24]</t>
   </si>
   <si>
     <t>Disk Rate, Service time, DMA Cpu blocked*</t>
   </si>
   <si>
-    <t>Min no of gates reqd</t>
-  </si>
-  <si>
     <t>One-one fn properties</t>
   </si>
   <si>
@@ -181,12 +163,6 @@
     <t>AVL Tree*</t>
   </si>
   <si>
-    <t xml:space="preserve">Lexer, Scanner, Symbol table </t>
-  </si>
-  <si>
-    <t>SR, RR conflicts in Parsers(Slr(1), lr(0), ll(k))*</t>
-  </si>
-  <si>
     <t xml:space="preserve">SQL Query(Count, FROM)** </t>
   </si>
   <si>
@@ -196,9 +172,6 @@
     <t>Decoder</t>
   </si>
   <si>
-    <t>#Reductions of a grammar using BUP</t>
-  </si>
-  <si>
     <t>T.C cchart (Sorting algo, MST)*</t>
   </si>
   <si>
@@ -214,9 +187,6 @@
     <t>Expand Opcode tech done</t>
   </si>
   <si>
-    <t>no of Tokens</t>
-  </si>
-  <si>
     <t>Com sub ele, copy prop, const prop*</t>
   </si>
   <si>
@@ -244,9 +214,6 @@
     <t>No of states in min FA** done</t>
   </si>
   <si>
-    <t>Language acceptance by FA done</t>
-  </si>
-  <si>
     <t>Process sched algo theory(RR, dispatcher) done</t>
   </si>
   <si>
@@ -289,12 +256,6 @@
     <t>safe and unsafe opern</t>
   </si>
   <si>
-    <t>control flow graph</t>
-  </si>
-  <si>
-    <t>static 1 hazard(mck-1)</t>
-  </si>
-  <si>
     <t>control unit design (mock-1)</t>
   </si>
   <si>
@@ -328,27 +289,15 @@
     <t>turing recog, advanced rice (Mock 3)</t>
   </si>
   <si>
-    <t>hamming distance(mck-1,3)</t>
-  </si>
-  <si>
-    <t>Faulty Circuits (mock3)</t>
-  </si>
-  <si>
     <t>max number of records on join (mock 3)</t>
   </si>
   <si>
     <t>median of median algo (mock3)</t>
   </si>
   <si>
-    <t>conversion of flip flops (nock3)</t>
-  </si>
-  <si>
     <t>Conversion of Flip flops (mock2,3)</t>
   </si>
   <si>
-    <t>dual v commplement (mock 3)</t>
-  </si>
-  <si>
     <t>DAG (mock 3)</t>
   </si>
   <si>
@@ -374,9 +323,6 @@
   </si>
   <si>
     <t>Files</t>
-  </si>
-  <si>
-    <t>Clock pulse Sequences(with shift reg, comb crkts) **, waveform determination</t>
   </si>
   <si>
     <t>Sorting Algo T.C qs and cases(mock2), modified sorting questions</t>
@@ -876,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032E660-027B-49D9-93E8-8FB79B8150B8}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,47 +920,25 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>88</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="3"/>
@@ -1028,28 +952,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1069,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1096,34 +1020,34 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1141,43 +1065,43 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1192,28 +1116,28 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="I9" s="6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1232,32 +1156,28 @@
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1276,43 +1196,33 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1327,32 +1237,32 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1370,31 +1280,31 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1413,16 +1323,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1449,7 +1359,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>16</v>
@@ -1458,11 +1368,11 @@
         <v>17</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1483,13 +1393,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>

--- a/My Topics Tracker.xlsx
+++ b/My Topics Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AFB8FE-8CF3-4ADD-9C66-8D05DB1D8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7C64B0-FDF0-4D7A-93E0-EF0306255DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6A90E04-9F9E-48A8-BA32-08344D7BBA98}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">My Weak Topics </t>
   </si>
@@ -91,9 +91,6 @@
     <t># Cycles reqd for given expressions</t>
   </si>
   <si>
-    <t>DP (Matrix chain)</t>
-  </si>
-  <si>
     <t>Decidability of problems (Halting prb)</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>TM(I/O, halting problems)</t>
   </si>
   <si>
-    <t>Page Table*</t>
-  </si>
-  <si>
     <t>Graph(adj list rep of directed, DFS,BFS)*</t>
   </si>
   <si>
@@ -124,12 +118,6 @@
     <t>Cache Memory (To which block mapping, locality)** done</t>
   </si>
   <si>
-    <t xml:space="preserve">sizeof operator </t>
-  </si>
-  <si>
-    <t>Heap leaf,internal nodes</t>
-  </si>
-  <si>
     <t>LR(0) parsing (#unique prd)[T1, q24]</t>
   </si>
   <si>
@@ -139,42 +127,18 @@
     <t>One-one fn properties</t>
   </si>
   <si>
-    <t>Deadlock banker's Algo</t>
-  </si>
-  <si>
     <t>Pipeline Latency, speedup*</t>
   </si>
   <si>
-    <t>Fork, ULThreads vs KLT *</t>
-  </si>
-  <si>
-    <t>Relation Alg (Join, ON Delete, Divide)**</t>
-  </si>
-  <si>
     <t>Partition of Set(Equivalence Cardinality)</t>
   </si>
   <si>
-    <t>Double,triple indirect pointer</t>
-  </si>
-  <si>
     <t>Correct word*</t>
   </si>
   <si>
-    <t>AVL Tree*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL Query(Count, FROM)** </t>
-  </si>
-  <si>
     <t>No of relations(reflexive)</t>
   </si>
   <si>
-    <t>Decoder</t>
-  </si>
-  <si>
-    <t>T.C cchart (Sorting algo, MST)*</t>
-  </si>
-  <si>
     <t>SDT ***(LvsS inherited attr)</t>
   </si>
   <si>
@@ -190,9 +154,6 @@
     <t>Com sub ele, copy prop, const prop*</t>
   </si>
   <si>
-    <t>Maximum possible Recursion depth DFS</t>
-  </si>
-  <si>
     <t>Probability(Multiple of, Graphs, arranging, bit string, Bayes) *******</t>
   </si>
   <si>
@@ -205,18 +166,9 @@
     <t>Control flow graph (basic blocks)*</t>
   </si>
   <si>
-    <t>Stack - (prefix,post,infix exp, push,pop) **, Queue *</t>
-  </si>
-  <si>
-    <t>T.C. of recursive prg***</t>
-  </si>
-  <si>
     <t>No of states in min FA** done</t>
   </si>
   <si>
-    <t>Process sched algo theory(RR, dispatcher) done</t>
-  </si>
-  <si>
     <t>Grammar***</t>
   </si>
   <si>
@@ -226,15 +178,9 @@
     <t>1d/2d/3d array using pointers***</t>
   </si>
   <si>
-    <t>inversion of arraay</t>
-  </si>
-  <si>
     <t>Hashing Probing*</t>
   </si>
   <si>
-    <t>Process Sync**</t>
-  </si>
-  <si>
     <t>Gropus, No. of Group, subgroups (Order divides), Poset (LUB,GLB)**, generators</t>
   </si>
   <si>
@@ -244,15 +190,9 @@
     <t>Static Single Assignment (SSA) form ***</t>
   </si>
   <si>
-    <t>#Keys(C.Key, Sk)***</t>
-  </si>
-  <si>
     <t>Graph (no of edges, Euler crkt,no of bounded regions)***</t>
   </si>
   <si>
-    <t>Stack Algo, Beladys anomaly</t>
-  </si>
-  <si>
     <t>safe and unsafe opern</t>
   </si>
   <si>
@@ -262,18 +202,12 @@
     <t>viable prefix(mock1)</t>
   </si>
   <si>
-    <t>counting fds (mock1)</t>
-  </si>
-  <si>
     <t>Disk, Sector Address (Mock 1)</t>
   </si>
   <si>
     <t>prod automata (mock 1)</t>
   </si>
   <si>
-    <t>dLL (Mock1)</t>
-  </si>
-  <si>
     <t>Matrix (Mock-1,2)</t>
   </si>
   <si>
@@ -289,62 +223,35 @@
     <t>turing recog, advanced rice (Mock 3)</t>
   </si>
   <si>
-    <t>max number of records on join (mock 3)</t>
-  </si>
-  <si>
-    <t>median of median algo (mock3)</t>
-  </si>
-  <si>
-    <t>Conversion of Flip flops (mock2,3)</t>
-  </si>
-  <si>
     <t>DAG (mock 3)</t>
   </si>
   <si>
     <t>dfa vs nfa, ntm vs dtm, … all these diff (Mock3)</t>
   </si>
   <si>
-    <t>Lang identification(from Grammar, strings, palindromes**, TM, MN Eqv)***, DCFL identification from language</t>
-  </si>
-  <si>
-    <t>determining functional completeness of equations</t>
-  </si>
-  <si>
-    <t>Subnetting , broadcasting</t>
-  </si>
-  <si>
-    <t>Normalisation ***</t>
-  </si>
-  <si>
     <t>Eigen Values (C-H theorem), eigen vector Many tests (incld mock 3)</t>
   </si>
   <si>
-    <t>Inorder to Post Order Traversal, expression tree</t>
-  </si>
-  <si>
     <t>Files</t>
   </si>
   <si>
     <t>Sorting Algo T.C qs and cases(mock2), modified sorting questions</t>
   </si>
   <si>
-    <t>Min no of Tables in ER, diag in ER****(Mock 1), (Demo test 2023 )</t>
-  </si>
-  <si>
-    <t>Max Heap (Mock 1 23)</t>
-  </si>
-  <si>
-    <t>decompositions - lossless, lossy</t>
-  </si>
-  <si>
     <t>Characteristic polynomial qs</t>
+  </si>
+  <si>
+    <t>Relation Alg (Divide)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack - (prefix,post,infix exp) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,13 +270,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -488,19 +388,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -812,7 +709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -823,7 +720,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,45 +747,45 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -913,7 +810,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -928,18 +825,12 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -951,30 +842,15 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -992,9 +868,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6"/>
@@ -1012,7 +886,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1020,35 +894,20 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>100</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1057,7 +916,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1065,44 +924,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="3"/>
@@ -1115,30 +958,22 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>88</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1149,7 +984,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1157,27 +992,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1196,33 +1029,33 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1243,26 +1076,26 @@
         <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1280,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="K13" s="6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1323,16 +1156,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1359,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>16</v>
@@ -1368,11 +1201,11 @@
         <v>17</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1393,13 +1226,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
